--- a/biology/Médecine/Sébastien_Remy/Sébastien_Remy.xlsx
+++ b/biology/Médecine/Sébastien_Remy/Sébastien_Remy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Remy</t>
+          <t>Sébastien_Remy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien Joseph Remy, né le 2 février 1854 à Schirmeck (Bas-Rhin) et mort le 21 mars 1944 à Nancy (Meurthe-et-Moselle), est un médecin et obstétricien français, professeur à la faculté de médecine de Nancy, conseiller municipal de la ville de Nancy.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Remy</t>
+          <t>Sébastien_Remy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 2 février 1854 à Schirmeck dans le Bas-Rhin, petit-fils de Jean Joseph Remy (1775-1847)[1]  (maire de La Broque), il fait partie des nombreux Alsaciens-Lorrains réfugiés à Nancy lors de la guerre de 1870. Il meurt le 21 mars 1944 à Nancy Meurthe-et-Moselle, où il était domicilié au quarante deux rue des Quatre-Églises.
-Sébastien Remy épouse Marie Gabrielle Triboulot[2] le 25 juillet 1882 à Rambervillers (Vosges) dont il aura 6 enfants (2 garçons et 4 filles). Les deux garçons furent à leur tour appréciés comme médecins : le Dr André Remy[3] à Nancy, le Dr Jean Remy[4] à Rambervillers.
-Le professeur Sébastien Remy a  été conseiller municipal de Nancy (7/7/1904 - 18/5/1912) sur la liste Républicaine, Libérale et Progressiste, aux côtés  de Ludovic Beauchet[5] (1855-1914), professeur de droit à l'université de Nancy puis maire de Nancy.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 2 février 1854 à Schirmeck dans le Bas-Rhin, petit-fils de Jean Joseph Remy (1775-1847)  (maire de La Broque), il fait partie des nombreux Alsaciens-Lorrains réfugiés à Nancy lors de la guerre de 1870. Il meurt le 21 mars 1944 à Nancy Meurthe-et-Moselle, où il était domicilié au quarante deux rue des Quatre-Églises.
+Sébastien Remy épouse Marie Gabrielle Triboulot le 25 juillet 1882 à Rambervillers (Vosges) dont il aura 6 enfants (2 garçons et 4 filles). Les deux garçons furent à leur tour appréciés comme médecins : le Dr André Remy à Nancy, le Dr Jean Remy à Rambervillers.
+Le professeur Sébastien Remy a  été conseiller municipal de Nancy (7/7/1904 - 18/5/1912) sur la liste Républicaine, Libérale et Progressiste, aux côtés  de Ludovic Beauchet (1855-1914), professeur de droit à l'université de Nancy puis maire de Nancy.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Remy</t>
+          <t>Sébastien_Remy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut nommé chef de clinique obstétricale en 1882, puis agrégé d'accouchements en 1886.
-Il est l'auteur de ses nombreuses communications à la Société de médecine, étudiant tout particulièrement les complications médicales de la gravido-puerpéralité : accidents gravido-cardiaques, tuberculose, éclampsie, métrite post-puerpérale ; il a décrit « le petit retour de couches » vers la troisième semaine du post-partum [6].
+Il est l'auteur de ses nombreuses communications à la Société de médecine, étudiant tout particulièrement les complications médicales de la gravido-puerpéralité : accidents gravido-cardiaques, tuberculose, éclampsie, métrite post-puerpérale ; il a décrit « le petit retour de couches » vers la troisième semaine du post-partum .
 L'antisepsie lors des accouchements a été l'objet de recherches et de nombreuses publications du professeur Remy à Nancy.
-Chef de clinique obstétricale dès 1882, agrégé d'accouchements en 1886, il publia en 1893 un précis de médecine opératoire obstétricale[7] et en 1896, il écrivit un travail original intitulé : Antisepsie et sages-femmes [8], qui demeure une référence dans la lutte contre la mortalité maternelle et infantile.
+Chef de clinique obstétricale dès 1882, agrégé d'accouchements en 1886, il publia en 1893 un précis de médecine opératoire obstétricale et en 1896, il écrivit un travail original intitulé : Antisepsie et sages-femmes , qui demeure une référence dans la lutte contre la mortalité maternelle et infantile.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Remy</t>
+          <t>Sébastien_Remy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,14 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauréat de la faculté de médecine de Nancy en 1875.
 Docteur en médecine  en 1880 avec une thèse sur l'influence de la grossesse sur la marche des maladies de cœur.
-Professeur agrégé d'obstétrique à la faculté de médecine de l'université de Nancy (1886)[9]
-Il a obtenu la distinction papale de chevalier de l'ordre de Saint-Grégoire en date du 14 avril 1930[10].
+Professeur agrégé d'obstétrique à la faculté de médecine de l'université de Nancy (1886)
+Il a obtenu la distinction papale de chevalier de l'ordre de Saint-Grégoire en date du 14 avril 1930.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Remy</t>
+          <t>Sébastien_Remy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De l'influence de la grossesse sur la marche des maladies du cœur, [thèse de médecine], Impr. G. Crépin-Leblond (Nancy) , 1880.
 De la grossesse compliquée de kyste ovarique, [thèse d'agrégation], J.B. Baillière et fils (Paris), 1886.
@@ -621,7 +641,7 @@
 Grossesse et maladies du cœur, impr. de Berger-Levrault (Nancy), 1892.
 Précis de médecine opératoire obstétricale , J.-B. Baillière et fils (Paris), 1893, VIII, 460 p.lire en ligne sur Gallica
 « Antisepsie et Sages-Femmes », in : Bulletin de la Société de médecine de Nancy, et Revue médicale de l'Est, 1896, 193 p.
-Médecine opératoire obstétricale : cours pratique fait à la Faculté de médecine de Nancy, V. Husson-Lemoine (Nancy), [1893].</t>
+Médecine opératoire obstétricale : cours pratique fait à la Faculté de médecine de Nancy, V. Husson-Lemoine (Nancy), .</t>
         </is>
       </c>
     </row>
